--- a/Server/masterdata/ManualTests/100asTeszt.xlsx
+++ b/Server/masterdata/ManualTests/100asTeszt.xlsx
@@ -1070,12 +1070,12 @@
       <c r="F7" s="11" t="n"/>
       <c r="G7" s="10" t="inlineStr">
         <is>
-          <t>Bank of China Tower</t>
+          <t>Nagy Iván-harangtorony</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>Kína, Hong Kong</t>
+          <t>Oroszország, Moszkva</t>
         </is>
       </c>
       <c r="I7" s="11" t="n"/>
@@ -1116,12 +1116,12 @@
       <c r="F8" s="11" t="n"/>
       <c r="G8" s="10" t="inlineStr">
         <is>
-          <t>Nagyboldogasszony-székesegyház</t>
+          <t>Bank of China Tower</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Szergijev Poszad</t>
+          <t>Kína, Hong Kong</t>
         </is>
       </c>
       <c r="I8" s="11" t="n"/>
@@ -1530,7 +1530,7 @@
       <c r="F17" s="11" t="n"/>
       <c r="G17" s="10" t="inlineStr">
         <is>
-          <t>Szmolnij kolostor</t>
+          <t>Szmolnij-székesegyház</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
@@ -3207,12 +3207,12 @@
       <c r="F7" s="11" t="n"/>
       <c r="G7" s="10" t="inlineStr">
         <is>
-          <t>Bank of China tower</t>
+          <t>Ivan The Great Bell tower</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>Hong Kong, China</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="I7" s="11" t="n"/>
@@ -3253,12 +3253,12 @@
       <c r="F8" s="11" t="n"/>
       <c r="G8" s="10" t="inlineStr">
         <is>
-          <t>The Assumption Cathedral</t>
+          <t>Bank of China tower</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>Sergiyev Posad, Russia</t>
+          <t>Hong Kong, China</t>
         </is>
       </c>
       <c r="I8" s="11" t="n"/>
@@ -3667,7 +3667,7 @@
       <c r="F17" s="11" t="n"/>
       <c r="G17" s="10" t="inlineStr">
         <is>
-          <t>Smolny Convent</t>
+          <t>Smolny Cathedral</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
@@ -5194,7 +5194,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="25" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4" s="26" t="n">
         <v>52</v>
@@ -5206,7 +5206,7 @@
         <v>71</v>
       </c>
       <c r="G4" s="25" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H4" s="26" t="n">
         <v>52</v>
@@ -5220,7 +5220,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="25" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D5" s="26" t="n">
         <v>46</v>
@@ -5232,7 +5232,7 @@
         <v>84</v>
       </c>
       <c r="G5" s="25" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H5" s="26" t="n">
         <v>46</v>
